--- a/biology/Zoologie/Erebia_mackinleyensis/Erebia_mackinleyensis.xlsx
+++ b/biology/Zoologie/Erebia_mackinleyensis/Erebia_mackinleyensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia mackinleyensis ou Erebia magdalena mackinleyensis est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia mackinleyensis a été nommé par Gunder en 1932[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia mackinleyensis a été nommé par Gunder en 1932.
 Ce sont les travaux d'Hilchie en 1990 qui tendent à prouver quErebia mackinleyensis est une espèce distincte, et non Erebia magdalena mackinleyensis, une sous-espèce dErebia magdalena.
-Nom vernaculaire
-Erebia mackinleyensis se nomme Mt. McKinley Alpine en anglais.
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erebia mackinleyensis est un papillon de couleur noir terne sur ses deux faces, avec aux antérieure une large zone distale marquée de roux. Il est de taille moyenne avec une envergure de 41 à 53 mm[2],[3].
-Chenille
-La chenille est poilue, verte marbrée de noir, et sa tête est marron foncé[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia mackinleyensis se nomme Mt. McKinley Alpine en anglais.
 </t>
         </is>
       </c>
@@ -575,16 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de fin juin à fin juillet[2].
-Son cycle de développement pourrait demander deux ans[2].
-Plantes hôtes
-Les plantes hôte de sa chenille sont des Carex, dont Carex atrata et peut-être des joncs[1],[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia mackinleyensis est un papillon de couleur noir terne sur ses deux faces, avec aux antérieure une large zone distale marquée de roux. Il est de taille moyenne avec une envergure de 41 à 53 mm,.
 </t>
         </is>
       </c>
@@ -610,16 +624,200 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est poilue, verte marbrée de noir, et sa tête est marron foncé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de fin juin à fin juillet.
+Son cycle de développement pourrait demander deux ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Carex, dont Carex atrata et peut-être des joncs,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le nord de l'Amérique du Nord en Alaska, au Yukon, en limite des Territoires du Nord-Ouest et de la Colombie-Britannique. Il serait aussi présent dans l'est de la Sibérie[2],[4].
-Biotope
-Il réside en altitude dans les zones d'éboulis[2].
-Protection
-Pas de statut de protection particulier connu.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le nord de l'Amérique du Nord en Alaska, au Yukon, en limite des Territoires du Nord-Ouest et de la Colombie-Britannique. Il serait aussi présent dans l'est de la Sibérie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en altitude dans les zones d'éboulis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_mackinleyensis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier connu.
 </t>
         </is>
       </c>
